--- a/medicine/Pharmacie/Résinifératoxine/Résinifératoxine.xlsx
+++ b/medicine/Pharmacie/Résinifératoxine/Résinifératoxine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9sinif%C3%A9ratoxine</t>
+          <t>Résinifératoxine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La résinifératoxine (RTX) est un analogue naturel de la capsaïcine[2] qui est elle-même un composé naturel. C'est un diterpène daphnane capable d'activer les récepteurs vanilloïdes dans une sous-population de nerfs sensitifs impliqués dans la nociception (transmission de la douleur physiologique)[3],[4]. 
-La RTX rend un canal ionique de la membrane plasmique de nerfs sensitifs — le TRPV1 (transient receptor potential vanilloid 1) — perméable aux cations, et plus particulièrement aux cations calcium ; ceci provoque une puissante sensation d'irritation suivie par une désensibilisation et un effet analgésique[5],[6].
-Des recherches sont menées notamment par les National Institutes of Health[7],[8] et l'Université de Pennsylvanie[9] pour créer une nouvelle classe d'analgésiques à partir de la résine de l'euphorbe résinifère (Euphorbia resinifera), une plante marocaine cactiforme (c'est-à-dire dont l'apparence est proche de celle du cactus commun) qui contient de hautes concentrations en RTX.
+La résinifératoxine (RTX) est un analogue naturel de la capsaïcine qui est elle-même un composé naturel. C'est un diterpène daphnane capable d'activer les récepteurs vanilloïdes dans une sous-population de nerfs sensitifs impliqués dans la nociception (transmission de la douleur physiologique),. 
+La RTX rend un canal ionique de la membrane plasmique de nerfs sensitifs — le TRPV1 (transient receptor potential vanilloid 1) — perméable aux cations, et plus particulièrement aux cations calcium ; ceci provoque une puissante sensation d'irritation suivie par une désensibilisation et un effet analgésique,.
+Des recherches sont menées notamment par les National Institutes of Health, et l'Université de Pennsylvanie pour créer une nouvelle classe d'analgésiques à partir de la résine de l'euphorbe résinifère (Euphorbia resinifera), une plante marocaine cactiforme (c'est-à-dire dont l'apparence est proche de celle du cactus commun) qui contient de hautes concentrations en RTX.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9sinif%C3%A9ratoxine</t>
+          <t>Résinifératoxine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Synthèse totale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une synthèse totale de la (+)-résinifératoxine a été proposée par le groupe Wender de l'Université Stanford en 1997[10], qui est à la date de 2007 la seule synthèse totale complète d'une molécule de la famille des daphnanes[11].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une synthèse totale de la (+)-résinifératoxine a été proposée par le groupe Wender de l'Université Stanford en 1997, qui est à la date de 2007 la seule synthèse totale complète d'une molécule de la famille des daphnanes.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9sinif%C3%A9ratoxine</t>
+          <t>Résinifératoxine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La résinifératoxine est toxique et peut provoquer des brûlures chimiques. L'expérimentation sur le rat indique que l'ingestion de 148 mg/kg peut causer de sérieux dommages, notamment à l'estomac, entraînant la mort de la moitié des sujets (LD50)[12] (soit équivalent à 1,67 gramme pour un humain de 70 kg)[13].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La résinifératoxine est toxique et peut provoquer des brûlures chimiques. L'expérimentation sur le rat indique que l'ingestion de 148 mg/kg peut causer de sérieux dommages, notamment à l'estomac, entraînant la mort de la moitié des sujets (LD50) (soit équivalent à 1,67 gramme pour un humain de 70 kg).
 Au sommet de l'échelle de Scoville, la résinifératoxine se situe à un taux de 16 milliards, soit environ mille fois plus que la capsaïcine pure.
 </t>
         </is>
